--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF5D95-31CF-45C0-922A-EC9F1D5C2924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A2A4CC-72AB-4E75-BBA4-9441DACC35C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Day</t>
   </si>
@@ -234,91 +234,7 @@
     <t>Actuals</t>
   </si>
   <si>
-    <t>Basics, Normalization, SQL(DDL, DML, TCL)</t>
-  </si>
-  <si>
-    <t>DCL, Select statement with all clauses, Set Operators</t>
-  </si>
-  <si>
-    <t>Joins, Predefined functions, PL/SQL Basics, Procedures, Functions, Indexes, Views, Triggers</t>
-  </si>
-  <si>
-    <t>Fundas, Controll Statements, Arrays</t>
-  </si>
-  <si>
-    <t>Strings, OOPS Concept</t>
-  </si>
-  <si>
-    <t>Java Stream API and Lambda, Revision of Java</t>
-  </si>
-  <si>
-    <t>Java Servlets</t>
-  </si>
-  <si>
-    <t>Auto-wiring, Spring MVC</t>
-  </si>
-  <si>
-    <t>Spring boot MVC</t>
-  </si>
-  <si>
-    <t>Spring Boot REST</t>
-  </si>
-  <si>
-    <t>Swagger, Environment, Directories, Files, Pipes &amp; Filters, Shell Scripting, Variables</t>
-  </si>
-  <si>
-    <t>Basics of prog., control statements, arrays, strings, functions, pointers</t>
-  </si>
-  <si>
-    <t>structures, files, What is a proc c, compilation process, Directory Structure</t>
-  </si>
-  <si>
-    <t>HTML CSS Bootstrap</t>
-  </si>
-  <si>
-    <t>Javascript &amp; Jquery</t>
-  </si>
-  <si>
-    <t>SonarQube, Typescript</t>
-  </si>
-  <si>
-    <t>Angular Js vs Angular, Modules, Components, Services, Pipes, Custom Pipes</t>
-  </si>
-  <si>
-    <t>Observables, Validations, Custom validations, Routing</t>
-  </si>
-  <si>
-    <t>Spring MVC Form validation, ReactJs introduction</t>
-  </si>
-  <si>
-    <t>Classes, Props, State, Events, Forms</t>
-  </si>
-  <si>
-    <t>Angular installation, Docker Installation and Angular+Spring integrationa and creating docker image and push to hub.docker.com</t>
-  </si>
-  <si>
-    <t>Pro *C, React routers, CSS Styling, Docker network</t>
-  </si>
-  <si>
-    <t>ReactJs, Cloud computing, types of Cloud, Advantages, Disadvantages, deployig spring boot rest api in Elastic beanstalk</t>
-  </si>
-  <si>
-    <t>Deploying docker images to AWS EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo on Spring boot MVC + Spring boot REST API. Customer, Merchant, Product, Sale </t>
-  </si>
-  <si>
-    <t>Project day 1. Demo for Merchantwise Products</t>
-  </si>
-  <si>
-    <t>Project day 2</t>
-  </si>
-  <si>
-    <t>Project day 3</t>
-  </si>
-  <si>
-    <t>Project day 4</t>
+    <t>Basics, Normalization, SQL(DDL)</t>
   </si>
 </sst>
 </file>
@@ -746,10 +662,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,14 +783,12 @@
         <v>7</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45168</v>
       </c>
@@ -895,9 +809,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="15">
         <v>3</v>
       </c>
@@ -925,9 +837,7 @@
       <c r="G9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="15">
         <v>4</v>
       </c>
@@ -958,9 +868,7 @@
       <c r="G10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="15">
         <v>5</v>
       </c>
@@ -1018,9 +926,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="15">
         <v>6</v>
       </c>
@@ -1046,9 +952,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="15">
         <v>7</v>
       </c>
@@ -1074,9 +978,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="15">
         <v>8</v>
       </c>
@@ -1102,9 +1004,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="15">
         <v>9</v>
       </c>
@@ -1130,9 +1030,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="15">
         <v>10</v>
       </c>
@@ -1190,9 +1088,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="15">
         <v>11</v>
       </c>
@@ -1218,9 +1114,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="15">
         <v>12</v>
       </c>
@@ -1246,9 +1140,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="H22" s="8"/>
       <c r="I22" s="15">
         <v>13</v>
       </c>
@@ -1274,9 +1166,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="H23" s="8"/>
       <c r="I23" s="15">
         <v>14</v>
       </c>
@@ -1302,9 +1192,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H24" s="8"/>
       <c r="I24" s="15">
         <v>15</v>
       </c>
@@ -1378,9 +1266,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="H28" s="8"/>
       <c r="I28" s="15">
         <v>16</v>
       </c>
@@ -1406,9 +1292,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="15">
         <v>17</v>
       </c>
@@ -1434,14 +1318,12 @@
         <v>26</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="H30" s="7"/>
       <c r="I30" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45191</v>
       </c>
@@ -1462,9 +1344,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="15">
         <v>19</v>
       </c>
@@ -1524,14 +1404,12 @@
       <c r="G34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="H34" s="9"/>
       <c r="I34" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45195</v>
       </c>
@@ -1552,14 +1430,12 @@
         <v>31</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="15">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45196</v>
       </c>
@@ -1580,9 +1456,7 @@
         <v>32</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="15">
         <v>22</v>
       </c>
@@ -1608,9 +1482,7 @@
         <v>34</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="H37" s="8"/>
       <c r="I37" s="15">
         <v>23</v>
       </c>
@@ -1636,9 +1508,7 @@
         <v>35</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="H38" s="8"/>
       <c r="I38" s="15">
         <v>24</v>
       </c>
@@ -1718,9 +1588,7 @@
       <c r="G42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="H42" s="8"/>
       <c r="I42" s="15">
         <v>25</v>
       </c>
@@ -1748,9 +1616,7 @@
       <c r="G43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="15">
         <v>26</v>
       </c>
@@ -1776,9 +1642,7 @@
         <v>38</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="H44" s="8"/>
       <c r="I44" s="15">
         <v>27</v>
       </c>
@@ -1804,9 +1668,7 @@
         <v>40</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="15">
         <v>28</v>
       </c>
@@ -1864,14 +1726,12 @@
         <v>41</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="H48" s="8"/>
       <c r="I48" s="15">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45209</v>
       </c>
@@ -1892,9 +1752,7 @@
         <v>42</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="H49" s="8"/>
       <c r="I49" s="15">
         <v>30</v>
       </c>
@@ -1922,14 +1780,12 @@
       <c r="G50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="15">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>45211</v>
       </c>
@@ -1952,15 +1808,13 @@
       <c r="G51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="H51" s="8"/>
       <c r="I51" s="15">
         <v>32</v>
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>45212</v>
       </c>
@@ -1983,9 +1837,7 @@
       <c r="G52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="H52" s="8"/>
       <c r="I52" s="15">
         <v>33</v>
       </c>
@@ -2043,14 +1895,12 @@
         <v>59</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="H55" s="8"/>
       <c r="I55" s="15">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>45216</v>
       </c>
@@ -2071,9 +1921,7 @@
         <v>60</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="H56" s="8"/>
       <c r="I56" s="15">
         <v>35</v>
       </c>
@@ -2099,9 +1947,7 @@
         <v>60</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="H57" s="8"/>
       <c r="I57" s="15">
         <v>36</v>
       </c>
@@ -2127,9 +1973,7 @@
         <v>60</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="H58" s="8"/>
       <c r="I58" s="15">
         <v>37</v>
       </c>
@@ -2155,9 +1999,7 @@
         <v>60</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="H59" s="8"/>
       <c r="I59" s="15">
         <v>38</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A2A4CC-72AB-4E75-BBA4-9441DACC35C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280AC98-9A36-4799-B45C-2991BEF71843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Day</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Basics, Normalization, SQL(DDL)</t>
+  </si>
+  <si>
+    <t>DML, TCL, DCL</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +786,9 @@
         <v>7</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="I7" s="15">
         <v>2</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280AC98-9A36-4799-B45C-2991BEF71843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF6424-250E-48A4-8852-8658F9578279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>DML, TCL, DCL</t>
+  </si>
+  <si>
+    <t>Select statement with all clauses, Set Operators, Predefined functions</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +817,9 @@
         <v>8</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I8" s="15">
         <v>3</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF6424-250E-48A4-8852-8658F9578279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385C97D-4D23-4F84-921D-DC9C4DC0BC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -240,7 +240,7 @@
     <t>DML, TCL, DCL</t>
   </si>
   <si>
-    <t>Select statement with all clauses, Set Operators, Predefined functions</t>
+    <t>Select statement with all clauses, Set Operators, Predefined functions, Indexs, Views, PL/SQL Basics</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45168</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385C97D-4D23-4F84-921D-DC9C4DC0BC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705449E3-17F0-452E-B251-2D571142780E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -237,10 +237,10 @@
     <t>Basics, Normalization, SQL(DDL)</t>
   </si>
   <si>
-    <t>DML, TCL, DCL</t>
-  </si>
-  <si>
     <t>Select statement with all clauses, Set Operators, Predefined functions, Indexs, Views, PL/SQL Basics</t>
+  </si>
+  <si>
+    <t>(DML, TCL, DCL) Commands, Joins</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="15">
         <v>2</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="15">
         <v>3</v>
@@ -847,7 +847,9 @@
       <c r="G9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="15">
         <v>4</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705449E3-17F0-452E-B251-2D571142780E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F975A-CF8F-4274-BC2F-2C4EF188AFF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>Day</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>(DML, TCL, DCL) Commands, Joins</t>
+  </si>
+  <si>
+    <t>PL/SQL Basics, Cursors, Procedures, Functions, Triggers, Java Fundas</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I9" s="15">
         <v>4</v>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F975A-CF8F-4274-BC2F-2C4EF188AFF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FDBBA-1E85-4D45-9456-DB21E31ECAFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Day</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>PL/SQL Basics, Cursors, Procedures, Functions, Triggers, Java Fundas</t>
+  </si>
+  <si>
+    <t>Fundas, Controll Statements, Arrays</t>
   </si>
 </sst>
 </file>
@@ -671,10 +674,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,7 +886,9 @@
       <c r="G10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="I10" s="15">
         <v>5</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FDBBA-1E85-4D45-9456-DB21E31ECAFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633E700-7FB2-4BF2-ACAE-74F3E6F7BE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Fundas, Controll Statements, Arrays</t>
+  </si>
+  <si>
+    <t>Strings, OOPS Concepts</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +949,9 @@
         <v>12</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="I13" s="15">
         <v>6</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633E700-7FB2-4BF2-ACAE-74F3E6F7BE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A83718A-C729-44DF-8994-E70EB9399BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -680,7 +680,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A83718A-C729-44DF-8994-E70EB9399BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957784BE-5F51-4CE4-AD0A-FF127186D228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>Strings, OOPS Concepts</t>
+  </si>
+  <si>
+    <t>OOPS Concepts
+Exception Handlings</t>
   </si>
 </sst>
 </file>
@@ -677,10 +681,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45174</v>
       </c>
@@ -977,7 +981,9 @@
         <v>13</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="I14" s="15">
         <v>7</v>
       </c>
@@ -2036,6 +2042,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957784BE-5F51-4CE4-AD0A-FF127186D228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F4370-A4B8-4C6F-B455-0F62FB63A150}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   </si>
   <si>
     <t>OOPS Concepts
-Exception Handlings</t>
+Exception Handlings, Collections</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45174</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F4370-A4B8-4C6F-B455-0F62FB63A150}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03381D1F-C235-47D6-89F2-A7A2F2535CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -684,7 +684,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1009,9 @@
         <v>14</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="15">
         <v>8</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03381D1F-C235-47D6-89F2-A7A2F2535CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D0C62-4D09-4B9A-9458-9D04D452F622}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -254,6 +254,9 @@
   <si>
     <t>OOPS Concepts
 Exception Handlings, Collections</t>
+  </si>
+  <si>
+    <t>Collections, IOStreams</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1040,9 @@
         <v>15</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="15">
         <v>9</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D0C62-4D09-4B9A-9458-9D04D452F622}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC60A7-8E3A-4499-B054-803A31B94896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 Exception Handlings, Collections</t>
   </si>
   <si>
-    <t>Collections, IOStreams</t>
+    <t>Collections, IOStreams, Regex</t>
   </si>
 </sst>
 </file>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC60A7-8E3A-4499-B054-803A31B94896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755ABB22-358A-497F-AC9C-3209B2377A5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45177</v>
       </c>
@@ -1068,7 +1068,9 @@
         <v>16</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" s="15">
         <v>10</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755ABB22-358A-497F-AC9C-3209B2377A5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94D809-E3BD-4DBC-ACE5-7C2F201BB6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -687,7 +687,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1128,9 @@
         <v>17</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="15">
         <v>11</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94D809-E3BD-4DBC-ACE5-7C2F201BB6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009818C-FA7D-4057-A8E0-BD012DA34FE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -684,10 +684,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1156,9 @@
         <v>19</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I21" s="15">
         <v>12</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009818C-FA7D-4057-A8E0-BD012DA34FE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C11D5-79C3-4630-8FD1-3F4064A2D562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>Collections, IOStreams, Regex</t>
+  </si>
+  <si>
+    <t>Java Assessment in MCQ and Programming challenge
+What is Spring, Spring Core(Deependancy Injection, Inversion of Control</t>
   </si>
 </sst>
 </file>
@@ -684,10 +688,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45182</v>
       </c>
@@ -1184,7 +1188,9 @@
         <v>21</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I22" s="15">
         <v>13</v>
       </c>
@@ -1210,7 +1216,9 @@
         <v>22</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I23" s="15">
         <v>14</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C11D5-79C3-4630-8FD1-3F4064A2D562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6476565D-0F06-4A34-8962-CAB05134DFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -688,10 +688,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6476565D-0F06-4A34-8962-CAB05134DFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564777DE-3BC2-4DE1-9593-93F528C211F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -688,10 +688,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564777DE-3BC2-4DE1-9593-93F528C211F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F7874-CE34-4AA2-9C92-F618E60C32D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -688,10 +688,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1244,9 @@
         <v>23</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I24" s="15">
         <v>15</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F7874-CE34-4AA2-9C92-F618E60C32D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C68C2E-72FA-4AD3-8FA0-B1DA55AE0CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -691,7 +691,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,7 +1320,9 @@
         <v>24</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="I28" s="15">
         <v>16</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C68C2E-72FA-4AD3-8FA0-B1DA55AE0CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB85A6-6516-453F-A897-E92864E4D121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -688,10 +688,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB85A6-6516-453F-A897-E92864E4D121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BCA2F7-6B5D-4797-8C29-C66554035A5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -688,10 +688,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1348,9 @@
         <v>25</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I29" s="15">
         <v>17</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BCA2F7-6B5D-4797-8C29-C66554035A5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F80783A-DC96-48EB-981A-906DF81539F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>Day</t>
   </si>
@@ -261,6 +261,9 @@
   <si>
     <t>Java Assessment in MCQ and Programming challenge
 What is Spring, Spring Core(Deependancy Injection, Inversion of Control</t>
+  </si>
+  <si>
+    <t>Spring boot MVC</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,13 +1352,13 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I29" s="15">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45190</v>
       </c>
@@ -1376,7 +1379,9 @@
         <v>26</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I30" s="15">
         <v>18</v>
       </c>
@@ -1901,7 +1906,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="A53" s="10">
         <v>45213</v>
       </c>
       <c r="B53" s="11">
@@ -1917,7 +1922,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54" s="10">
         <v>45214</v>
       </c>
       <c r="B54" s="11">

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F80783A-DC96-48EB-981A-906DF81539F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FC91C-A600-496E-A8C4-AB3F89D9CC14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Day</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Spring boot MVC</t>
+  </si>
+  <si>
+    <t>REST, Postman, Swagger</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45190</v>
       </c>
@@ -1380,7 +1383,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I30" s="15">
         <v>18</v>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FC91C-A600-496E-A8C4-AB3F89D9CC14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF29CB-B609-4E62-9C9F-357591B473A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Day</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>REST, Postman, Swagger</t>
+  </si>
+  <si>
+    <t>Email from Spring boot</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1413,9 @@
         <v>28</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="I31" s="15">
         <v>19</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF29CB-B609-4E62-9C9F-357591B473A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461698DD-988A-4EF9-AE78-BFEA8429C0D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Day</t>
   </si>
@@ -269,7 +269,10 @@
     <t>REST, Postman, Swagger</t>
   </si>
   <si>
-    <t>Email from Spring boot</t>
+    <t>Email from Spring boot, JPA Relationships, Unix commands, Pipes, Filters</t>
+  </si>
+  <si>
+    <t>Shell Scripting, Variables, Functions</t>
   </si>
 </sst>
 </file>
@@ -697,10 +700,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1478,9 @@
       <c r="G34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="I34" s="15">
         <v>20</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461698DD-988A-4EF9-AE78-BFEA8429C0D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732BBF6E-198D-4D7E-8F11-E9B76DCF2037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -272,7 +272,7 @@
     <t>Email from Spring boot, JPA Relationships, Unix commands, Pipes, Filters</t>
   </si>
   <si>
-    <t>Shell Scripting, Variables, Functions</t>
+    <t>Shell Scripting, Variables, Functions, Basics of prog C, Spring Security</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>45194</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732BBF6E-198D-4D7E-8F11-E9B76DCF2037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6947F7C4-7671-43BC-B545-3A5908AC0D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>Day</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Shell Scripting, Variables, Functions, Basics of prog C, Spring Security</t>
+  </si>
+  <si>
+    <t>control statements, arrays, strings</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,7 +1509,9 @@
         <v>31</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="I35" s="15">
         <v>21</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6947F7C4-7671-43BC-B545-3A5908AC0D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A25813-8286-45BF-9735-40BF16051040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -703,7 +703,7 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="H36" sqref="H36"/>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A25813-8286-45BF-9735-40BF16051040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6219F-FA05-4617-9F48-870A5A5FEB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Day</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>control statements, arrays, strings</t>
+  </si>
+  <si>
+    <t>Spring boot security with JWT, functions, pointers, structures, files</t>
   </si>
 </sst>
 </file>
@@ -703,10 +706,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,7 +1519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45196</v>
       </c>
@@ -1537,7 +1540,9 @@
         <v>32</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="I36" s="15">
         <v>22</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6219F-FA05-4617-9F48-870A5A5FEB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9221FB7-945D-4F45-9713-B4413A0558EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Day</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Spring boot security with JWT, functions, pointers, structures, files</t>
+  </si>
+  <si>
+    <t>Spring boot feign, restTemplate</t>
+  </si>
+  <si>
+    <t>Jenkins, HTML</t>
   </si>
 </sst>
 </file>
@@ -706,10 +712,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1574,9 @@
         <v>34</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="I37" s="15">
         <v>23</v>
       </c>
@@ -1594,7 +1602,9 @@
         <v>35</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="I38" s="15">
         <v>24</v>
       </c>
@@ -1674,7 +1684,9 @@
       <c r="G42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I42" s="15">
         <v>25</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9221FB7-945D-4F45-9713-B4413A0558EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F0824-8455-463E-A237-166981760E3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -712,10 +712,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F0824-8455-463E-A237-166981760E3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A3137D-BF58-4494-BB0B-9AE7720DACAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>Day</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Jenkins, HTML</t>
+  </si>
+  <si>
+    <t>What is a pro c, complitation process, Directory Structure, Restrictions, Python</t>
+  </si>
+  <si>
+    <t>CSS, JS</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1691,7 @@
         <v>53</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I42" s="15">
         <v>25</v>
@@ -1714,7 +1720,9 @@
       <c r="G43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="I43" s="15">
         <v>26</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A3137D-BF58-4494-BB0B-9AE7720DACAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839577C1-65A9-4387-90EE-9D9A318AA2DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Day</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>CSS, JS</t>
+  </si>
+  <si>
+    <t>Javascript Adv concepts, React Introduction</t>
   </si>
 </sst>
 </file>
@@ -718,10 +721,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,7 +1751,9 @@
         <v>38</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="I44" s="15">
         <v>27</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839577C1-65A9-4387-90EE-9D9A318AA2DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F2D1C-E428-49E8-9504-A7BEA46AC4A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -293,7 +293,7 @@
     <t>CSS, JS</t>
   </si>
   <si>
-    <t>Javascript Adv concepts, React Introduction</t>
+    <t>Javascript Adv concepts, React Introduction, Render HTML, JSX, Components, Classes, Props</t>
   </si>
 </sst>
 </file>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F2D1C-E428-49E8-9504-A7BEA46AC4A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA7A4F-7424-4849-9E50-DD183D7C527C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Day</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Javascript Adv concepts, React Introduction, Render HTML, JSX, Components, Classes, Props</t>
+  </si>
+  <si>
+    <t>React Routers, Events, Lists, Forms</t>
   </si>
 </sst>
 </file>
@@ -721,10 +724,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1782,9 @@
         <v>40</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="I45" s="15">
         <v>28</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA7A4F-7424-4849-9E50-DD183D7C527C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC5A1BD-1E6E-42A0-8524-B774D86451AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>Day</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>React Routers, Events, Lists, Forms</t>
+  </si>
+  <si>
+    <t>React Js integration with Spring security JWT, Sonarqube</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1824,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45208</v>
       </c>
@@ -1842,7 +1845,9 @@
         <v>41</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="I48" s="15">
         <v>29</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC5A1BD-1E6E-42A0-8524-B774D86451AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C5407-02F2-4033-9042-4D9B9369B1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>Day</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>React Js integration with Spring security JWT, Sonarqube</t>
+  </si>
+  <si>
+    <t>Project demo, Intro to DevOps, GIT, GITHUB, SonarQube</t>
   </si>
 </sst>
 </file>
@@ -730,7 +733,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45209</v>
       </c>
@@ -1873,7 +1876,9 @@
         <v>42</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="I49" s="15">
         <v>30</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C5407-02F2-4033-9042-4D9B9369B1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACBC1F-F24B-489D-BEFF-482763B96057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Day</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Project demo, Intro to DevOps, GIT, GITHUB, SonarQube</t>
+  </si>
+  <si>
+    <t>Docker commands, creating docker image of spring boot rest api and deploy to hub.docker. AWS: Deploying spring boot rest api in Elastic Beanstalk</t>
   </si>
 </sst>
 </file>
@@ -730,10 +733,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>45210</v>
       </c>
@@ -1906,7 +1909,9 @@
       <c r="G50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="I50" s="15">
         <v>31</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACBC1F-F24B-489D-BEFF-482763B96057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF8F7D-028E-4629-AB02-11F443C661AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>Day</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Docker commands, creating docker image of spring boot rest api and deploy to hub.docker. AWS: Deploying spring boot rest api in Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>AWS ECS, EC2, Install Docker in EC2 Linux instance and windows instance and use public IP to access running app</t>
+  </si>
+  <si>
+    <t>AWS Code pipeline for CI/CD, deploy reactjs (nodejs) app in aws and integrate with github to push changes</t>
   </si>
 </sst>
 </file>
@@ -733,10 +739,10 @@
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,7 +1922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>45211</v>
       </c>
@@ -1939,13 +1945,15 @@
       <c r="G51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="I51" s="15">
         <v>32</v>
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>45212</v>
       </c>
@@ -1968,7 +1976,9 @@
       <c r="G52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="I52" s="15">
         <v>33</v>
       </c>

--- a/TOC_Jag_38_days_2023_v1.xlsx
+++ b/TOC_Jag_38_days_2023_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF8F7D-028E-4629-AB02-11F443C661AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78FF287-5DBC-4A5B-A227-18D29CB8E726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Day</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>AWS Code pipeline for CI/CD, deploy reactjs (nodejs) app in aws and integrate with github to push changes</t>
+  </si>
+  <si>
+    <t>AWS Direct Connect, Lambda</t>
   </si>
 </sst>
 </file>
@@ -742,7 +745,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,7 +2039,9 @@
         <v>59</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="I55" s="15">
         <v>34</v>
       </c>
